--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5258B71-1702-4155-8E57-F663E8E9839E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606FECB-4B63-4B7A-A022-01B67059B569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606FECB-4B63-4B7A-A022-01B67059B569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AE7358-1123-4406-9DE0-7E4C19B04B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AE7358-1123-4406-9DE0-7E4C19B04B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9944ECC2-5393-479C-8A96-E4E43C075A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9944ECC2-5393-479C-8A96-E4E43C075A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA55F11-916A-45F5-9E17-A6CC1262E339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA55F11-916A-45F5-9E17-A6CC1262E339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F294C9F-5E36-4C05-924D-53EDD0679D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F294C9F-5E36-4C05-924D-53EDD0679D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D93894A-DAA6-4A2A-BC5C-01736F37495D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D93894A-DAA6-4A2A-BC5C-01736F37495D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33C6FA7-E913-4581-826F-F620F7B06059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33C6FA7-E913-4581-826F-F620F7B06059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1032F6A1-9223-43B1-8D22-6B7811D7AEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1032F6A1-9223-43B1-8D22-6B7811D7AEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC166E4-131B-44BE-B0B2-9BDE3FBA4CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC166E4-131B-44BE-B0B2-9BDE3FBA4CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400DB33F-8CE6-4B80-9CBB-5707FF64E754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30195" yWindow="-10875" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400DB33F-8CE6-4B80-9CBB-5707FF64E754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A5C6CA-F593-49F0-AAFB-288F0D536247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="-10875" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30630" yWindow="-10440" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A5C6CA-F593-49F0-AAFB-288F0D536247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B3B95D-E66C-43F4-8263-7DD28BAED315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30630" yWindow="-10440" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B3B95D-E66C-43F4-8263-7DD28BAED315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CBDD8C-F75F-486F-87CF-8C43EF11D96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CBDD8C-F75F-486F-87CF-8C43EF11D96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84D1B88-1B51-47D3-82CF-C8C9382F03BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84D1B88-1B51-47D3-82CF-C8C9382F03BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925524DA-A747-4F45-9CF9-47E42BDCE27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925524DA-A747-4F45-9CF9-47E42BDCE27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19AAC36-D2F1-4CE9-94A5-3951381FDD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19AAC36-D2F1-4CE9-94A5-3951381FDD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20CF28C-72B4-464C-8B80-82888E5B0068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="13320" windowHeight="7704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20CF28C-72B4-464C-8B80-82888E5B0068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119759E3-1B7D-4733-A8F3-F1A28B9945FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="13320" windowHeight="7704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-10830" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119759E3-1B7D-4733-A8F3-F1A28B9945FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2321A26-A4AF-4A05-B510-08A12C9CEF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-10830" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29280" yWindow="-11790" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2321A26-A4AF-4A05-B510-08A12C9CEF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9651EEF3-897F-4A77-8B14-4D1902CD6269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="-11790" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9651EEF3-897F-4A77-8B14-4D1902CD6269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9623DC1-B7C7-4230-8798-E944AC64A60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/Market Data/CS3_market_data_2030.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9623DC1-B7C7-4230-8798-E944AC64A60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86BE145-7912-49B4-AFEE-534C972CA100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47280" yWindow="-7815" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,19 +1338,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="D1:E1" si="0">1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
